--- a/lesson16-sangnguyen/lesson16-sangnguyen-mohinhquanniem.xlsx
+++ b/lesson16-sangnguyen/lesson16-sangnguyen-mohinhquanniem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenthainhatsang/Desktop/JAVA16/3. DATABASE/java16-repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenthainhatsang/Desktop/JAVA16/3. DATABASE/java16-repository/lesson16-sangnguyen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05DE5C73-5C38-C546-A061-960A82F73268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05791052-AFE4-1440-AAC6-08D0BE2CBBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{CCCA7895-86CB-7247-AE40-06FBFB863F82}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{CCCA7895-86CB-7247-AE40-06FBFB863F82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Sân bóng mini</t>
   </si>
@@ -50,22 +50,31 @@
     <t>Mã suất đá</t>
   </si>
   <si>
-    <t>ID người thuê</t>
-  </si>
-  <si>
     <t>thời gian</t>
   </si>
   <si>
-    <t>người thuê</t>
-  </si>
-  <si>
-    <t>Họ tên</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
     <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>ID đội thuê 1</t>
+  </si>
+  <si>
+    <t>ID đội thuê 2</t>
+  </si>
+  <si>
+    <t>Đội thuê</t>
+  </si>
+  <si>
+    <t>ID Đội thuê</t>
+  </si>
+  <si>
+    <t>Họ tên đội trưởng</t>
+  </si>
+  <si>
+    <t>Tên đội bóng</t>
   </si>
 </sst>
 </file>
@@ -159,7 +168,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +488,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -515,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -523,34 +532,36 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
